--- a/estimation masse/estimation_masse.xlsx
+++ b/estimation masse/estimation_masse.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\Projet_indra\Indra-Project\estimation masse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univorleansfr-my.sharepoint.com/personal/o22101515_campus_univ-orleans_fr/Documents/Space'Tech Orléans/INDRA/Indra-Project/estimation masse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E8838B-22AB-4628-9ED8-B98B74FDAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{21E8838B-22AB-4628-9ED8-B98B74FDAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E10A666F-C489-4682-BDD3-82B478CB2D7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CDD3423-DEA7-440A-B7AD-37C6EA4D0859}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" xr2:uid="{1CDD3423-DEA7-440A-B7AD-37C6EA4D0859}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Estimation masse totale  fusée</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>structure à vide du rack  (estimation)</t>
+  </si>
+  <si>
+    <t>seq + trappe + rack</t>
+  </si>
+  <si>
+    <t>1 batterie lipo 6s</t>
+  </si>
+  <si>
+    <t>1 batterie secondaire</t>
+  </si>
+  <si>
+    <t>seq + trappe + batterie + rack</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD0804-45A4-4094-81C6-5FC3F93E67DD}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,6 +550,38 @@
         <v>10071</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
